--- a/hyperparameter search/O3/hyperparameter_optimization_results.xlsx
+++ b/hyperparameter search/O3/hyperparameter_optimization_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikodemas\Desktop\o3 results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F762397A-E7AA-4465-BCCA-8835538497D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB28908-837D-41AC-ABA6-EE7CE3FB1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{AD279D57-B0C1-4544-A24A-7AD6676E0DF7}"/>
   </bookViews>
@@ -17,13 +17,13 @@
     <sheet name="lstm (2)" sheetId="4" r:id="rId2"/>
     <sheet name="dna" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="dna (2)" sheetId="3" r:id="rId4"/>
-    <sheet name="na dates" sheetId="5" r:id="rId5"/>
+    <sheet name="dna dates" sheetId="5" r:id="rId5"/>
     <sheet name="lstm dates" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dna (2)'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'dna dates'!$A$2:$B$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'lstm dates'!$A$2:$B$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'na dates'!$A$2:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="191">
   <si>
     <t>SEQUENCE LENGTH</t>
   </si>
@@ -440,6 +440,183 @@
   </si>
   <si>
     <t>average time per station</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:00:36</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:35:10</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:59:40</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:59:08</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:58:41</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:59:34</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:31:37</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:00:07</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:40:20</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:00:24</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:28:25</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:12:31</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:00:22</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:37:54</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:32:37</t>
+  </si>
+  <si>
+    <t>30/08/2021 16:37:55</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:58:49</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:19:14</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:01:07</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:22:02</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:00:54</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:58:06</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:07:00</t>
+  </si>
+  <si>
+    <t>30/08/2021 17:00:27</t>
+  </si>
+  <si>
+    <t>30/08/2021 19:05:17</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:07:05</t>
+  </si>
+  <si>
+    <t>30/08/2021 16:56:08</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:40:42</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:06:51</t>
+  </si>
+  <si>
+    <t>30/08/2021 17:12:50</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:07:45</t>
+  </si>
+  <si>
+    <t>30/08/2021 17:23:31</t>
+  </si>
+  <si>
+    <t>30/08/2021 18:16:41</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:02:39</t>
+  </si>
+  <si>
+    <t>30/08/2021 14:56:15</t>
+  </si>
+  <si>
+    <t>30/08/2021 13:01:01</t>
+  </si>
+  <si>
+    <t>30/08/2021 16:54:51</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:58:37</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:53:16</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:58:42</t>
+  </si>
+  <si>
+    <t>30/08/2021 20:23:34</t>
+  </si>
+  <si>
+    <t>30/08/2021 23:21:50</t>
+  </si>
+  <si>
+    <t>30/08/2021 20:51:48</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:07:44</t>
+  </si>
+  <si>
+    <t>30/08/2021 19:37:59</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:59:23</t>
+  </si>
+  <si>
+    <t>30/08/2021 16:25:57</t>
+  </si>
+  <si>
+    <t>30/08/2021 16:48:11</t>
+  </si>
+  <si>
+    <t>30/08/2021 18:27:59</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:59:28</t>
+  </si>
+  <si>
+    <t>30/08/2021 19:03:21</t>
+  </si>
+  <si>
+    <t>30/08/2021 15:07:43</t>
+  </si>
+  <si>
+    <t>30/08/2021 20:02:58</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:59:52</t>
+  </si>
+  <si>
+    <t>31/08/2021 05:52:30</t>
+  </si>
+  <si>
+    <t>30/08/2021 12:58:48</t>
+  </si>
+  <si>
+    <t>31/08/2021 09:40:54</t>
+  </si>
+  <si>
+    <t>Err</t>
+  </si>
+  <si>
+    <t>Imperial's HPC crashed after this, so I am taking this as last end time</t>
   </si>
 </sst>
 </file>
@@ -501,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -513,6 +690,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,7 +2586,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5622,19 +5801,20 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T3"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" customWidth="1"/>
     <col min="14" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5710,86 +5890,86 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1650.0640597343399</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="11">
+        <v>2073.5646071433998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.4000000000000003E-3</v>
+        <v>133</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="F3" s="1">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
-        <v>40</v>
-      </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1">
-        <v>0.32098159193992598</v>
+      <c r="L3" s="11">
+        <v>0.23594552278518599</v>
       </c>
       <c r="N3" s="1">
         <f>SUM(B3:B11,B15:B23,B27:B35,B39:B47)</f>
-        <v>450846.55120277323</v>
+        <v>488861.54690360953</v>
       </c>
       <c r="O3" s="1">
         <f>N3/3600</f>
-        <v>125.23515311188146</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>63</v>
+        <v>135.79487413989153</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="R3" s="3">
-        <v>0.552800925925926</v>
+        <v>0.4327893518518518</v>
       </c>
       <c r="S3" s="1">
-        <f>13+((16*60+2)/3600)</f>
-        <v>13.267222222222223</v>
+        <f>10+((23*60+13)/3600)</f>
+        <v>10.386944444444444</v>
       </c>
       <c r="T3" s="1">
         <f>O3/4</f>
-        <v>31.308788277970365</v>
+        <v>33.948718534972883</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>2906.3116223812099</v>
+      <c r="B4" s="11">
+        <v>6013.0692560672696</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.8E-3</v>
+        <v>140</v>
+      </c>
+      <c r="E4" s="11">
+        <v>6.6499999999999997E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -5803,37 +5983,37 @@
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.316755831241607</v>
+      <c r="L4" s="11">
+        <v>0.231478735804557</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>18509.984758138598</v>
+      <c r="B5" s="11">
+        <v>7518.7850418090802</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>147</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -5841,37 +6021,37 @@
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1">
-        <v>0.31532752513885498</v>
+      <c r="L5" s="11">
+        <v>0.23143233358859999</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>4662.1047966480201</v>
+      <c r="B6" s="11">
+        <v>6806.9586534500104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>155</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1">
         <v>45</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -5879,37 +6059,37 @@
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="1">
-        <v>0.316073358058929</v>
+      <c r="L6" s="11">
+        <v>0.23146383464336301</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>14541.218938350599</v>
+      <c r="B7" s="11">
+        <v>7558.4141058921796</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.4499999999999999E-3</v>
+        <v>161</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="F7" s="1">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -5917,160 +6097,140 @@
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="1">
-        <v>0.31536799669265703</v>
+      <c r="L7" s="11">
+        <v>0.23105701804161</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>34560.1183068752</v>
+      <c r="B8" s="11">
+        <v>14029.9767403602</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.7499999999999999E-3</v>
+        <v>168</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="F8" s="1">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1">
         <v>55</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.23098106682300501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12">
+        <v>37388.540085792498</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="F9" s="5">
         <v>30</v>
       </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G9" s="5">
         <v>30</v>
       </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.31418141722679099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7970.6963982582001</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.31293258070945701</v>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.23091560602188099</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>19371.627396106702</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.31547299027442899</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
-        <v>13954.536030054</v>
+      <c r="B11" s="11">
+        <v>13727.2981920242</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.0500000000000002E-3</v>
+        <v>179</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F11" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>25</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
+      <c r="J11" s="1">
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="1">
-        <v>0.31544667482376099</v>
+      <c r="L11" s="11">
+        <v>0.23103077709674799</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -6123,23 +6283,23 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>1673.60734224319</v>
+      <c r="B15" s="11">
+        <v>3568.01505923271</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.1000000000000004E-3</v>
+        <v>135</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="F15" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -6153,69 +6313,69 @@
       <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="1">
-        <v>0.63896554708480802</v>
+      <c r="L15" s="11">
+        <v>0.54342824220657304</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
-        <v>3826.6196000576001</v>
+      <c r="B16" s="11">
+        <v>8881.4581892490296</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.15E-3</v>
+        <v>142</v>
+      </c>
+      <c r="E16" s="11">
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="F16" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>40</v>
       </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>55</v>
-      </c>
-      <c r="J16" s="1">
-        <v>25</v>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="1">
-        <v>0.63745075464248602</v>
+      <c r="L16" s="11">
+        <v>0.53593891859054499</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
-        <v>17652.9520578384</v>
+      <c r="B17" s="11">
+        <v>4824.1327667236301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>149</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1.9E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -6229,151 +6389,151 @@
       <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="1">
-        <v>0.63526183366775502</v>
+      <c r="L17" s="11">
+        <v>0.53508514165878296</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
-        <v>5085.1938924789401</v>
+      <c r="B18" s="11">
+        <v>21863.162607431401</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="F18" s="1">
         <v>45</v>
       </c>
-      <c r="E18" s="1">
-        <v>1.15E-3</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>60</v>
       </c>
-      <c r="G18" s="1">
-        <v>40</v>
-      </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.53592896461486805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12">
+        <v>8146.2192683219901</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.15E-3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
         <v>10</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.63509631156921298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6947.1702637672397</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9.5E-4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <v>20</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.63360279798507602</v>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.53494364023208596</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
-        <v>8464.2915654182398</v>
+      <c r="B20" s="11">
+        <v>10479.344611406301</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5.5000000000000003E-4</v>
+        <v>170</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="F20" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1">
-        <v>35</v>
-      </c>
-      <c r="K20" s="1">
-        <v>25</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.63441240787506104</v>
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.53564304113387995</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>8725.9455826282501</v>
+      <c r="B21" s="11">
+        <v>28386.2790472507</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6.2500000000000003E-3</v>
+        <v>174</v>
+      </c>
+      <c r="E21" s="11">
+        <v>5.45E-3</v>
       </c>
       <c r="F21" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>22</v>
@@ -6381,69 +6541,49 @@
       <c r="K21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="1">
-        <v>0.632568418979644</v>
+      <c r="L21" s="11">
+        <v>0.53513228893279996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>18742.708255290901</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5.6499999999999996E-3</v>
-      </c>
-      <c r="F22" s="1">
-        <v>50</v>
-      </c>
-      <c r="G22" s="1">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1">
-        <v>40</v>
-      </c>
-      <c r="J22" s="1">
-        <v>20</v>
-      </c>
-      <c r="K22" s="1">
-        <v>10</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.63037300109863204</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
-        <v>13624.7661964893</v>
+      <c r="B23" s="11">
+        <v>12013.7375273704</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.5000000000000001E-4</v>
+        <v>180</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="F23" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -6452,13 +6592,13 @@
         <v>55</v>
       </c>
       <c r="J23" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="1">
-        <v>0.63297957181930498</v>
+      <c r="L23" s="11">
+        <v>0.535156369209289</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -6511,29 +6651,29 @@
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="1">
-        <v>1753.28168034553</v>
+      <c r="B27" s="11">
+        <v>3653.1751198768602</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
-        <v>20</v>
-      </c>
       <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>22</v>
@@ -6541,37 +6681,37 @@
       <c r="K27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="1">
-        <v>0.429647207260131</v>
+      <c r="L27" s="11">
+        <v>0.27511197328567499</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
-        <v>13689.306555986401</v>
+      <c r="B28" s="11">
+        <v>7927.0367832183802</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1E-3</v>
+        <v>143</v>
+      </c>
+      <c r="E28" s="11">
+        <v>6.3E-3</v>
       </c>
       <c r="F28" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>22</v>
@@ -6579,265 +6719,245 @@
       <c r="K28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="1">
-        <v>0.42175331711769098</v>
+      <c r="L28" s="11">
+        <v>0.27319100499153098</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="1">
-        <v>24848.4510962963</v>
+      <c r="B29" s="11">
+        <v>4855.6852748394003</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3.5500000000000002E-3</v>
+        <v>151</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F29" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
       </c>
       <c r="I29" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="1">
-        <v>0.41729146242141701</v>
+      <c r="L29" s="11">
+        <v>0.27311947941780002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10</v>
       </c>
-      <c r="B30" s="1">
-        <v>6836.19565296173</v>
+      <c r="B30" s="11">
+        <v>6542.2717576026898</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>158</v>
+      </c>
+      <c r="E30" s="11">
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F30" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G30" s="1">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.27320906519889798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>13</v>
+      </c>
+      <c r="B31" s="12">
+        <v>11335.851985216101</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="12">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>40</v>
+      </c>
+      <c r="G31" s="5">
         <v>35</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="5">
         <v>3</v>
       </c>
-      <c r="I30" s="1">
-        <v>50</v>
-      </c>
-      <c r="J30" s="1">
-        <v>40</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="I31" s="5">
         <v>25</v>
       </c>
-      <c r="L30" s="1">
-        <v>0.41780060529708801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1">
-        <v>7524.10573172569</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="1">
-        <v>7.0499999999999998E-3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>20</v>
-      </c>
-      <c r="G31" s="1">
-        <v>45</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>50</v>
-      </c>
-      <c r="J31" s="1">
-        <v>25</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.41923835873603799</v>
+      <c r="J31" s="5">
+        <v>10</v>
+      </c>
+      <c r="K31" s="5">
+        <v>15</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.27303546667098999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="1">
-        <v>47730.032646179199</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1">
-        <v>9.3500000000000007E-3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>55</v>
-      </c>
-      <c r="G32" s="1">
-        <v>50</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2</v>
-      </c>
-      <c r="I32" s="1">
-        <v>30</v>
-      </c>
-      <c r="J32" s="1">
-        <v>30</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.41801014542579601</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>19</v>
       </c>
       <c r="B33" s="1">
-        <v>15344.396218776699</v>
+        <v>74525.643368005694</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1">
-        <v>1.4499999999999999E-3</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="F33" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1">
         <v>50</v>
       </c>
-      <c r="K33" s="1">
-        <v>35</v>
+      <c r="K33" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="L33" s="1">
-        <v>0.41508948802947998</v>
+        <v>0.27314934134483299</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>22</v>
       </c>
-      <c r="B34" s="1">
-        <v>15929.8939530849</v>
+      <c r="B34" s="11">
+        <v>16214.447137355801</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7.6499999999999997E-3</v>
+        <v>176</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F34" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H34" s="1">
-        <v>2</v>
-      </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="1">
-        <v>0.40946850180625899</v>
+      <c r="L34" s="11">
+        <v>0.27335509657859802</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>25</v>
       </c>
-      <c r="B35" s="1">
-        <v>11775.0464353561</v>
+      <c r="B35" s="11">
+        <v>21833.118679284999</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1">
-        <v>9.2499999999999995E-3</v>
+        <v>182</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1.15E-3</v>
       </c>
       <c r="F35" s="1">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>22</v>
@@ -6845,8 +6965,8 @@
       <c r="K35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="1">
-        <v>0.41886991262435902</v>
+      <c r="L35" s="11">
+        <v>0.27312916517257602</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -6899,67 +7019,67 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="1">
-        <v>2032.32372117042</v>
+      <c r="B39" s="11">
+        <v>1861.1844811439501</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>138</v>
+      </c>
+      <c r="E39" s="11">
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F39" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1">
-        <v>3</v>
-      </c>
-      <c r="I39" s="1">
-        <v>60</v>
-      </c>
-      <c r="J39" s="1">
-        <v>45</v>
-      </c>
-      <c r="K39" s="1">
-        <v>20</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.169195055961608</v>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.13090482354164101</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
-        <v>3864.57154631614</v>
+      <c r="B40" s="11">
+        <v>5851.2771279811795</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.8500000000000001E-3</v>
+        <v>145</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="F40" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G40" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>22</v>
@@ -6967,113 +7087,113 @@
       <c r="K40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="1">
-        <v>0.16746357083320601</v>
+      <c r="L40" s="11">
+        <v>0.128623202443122</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7</v>
       </c>
-      <c r="B41" s="1">
-        <v>4781.32144618034</v>
+      <c r="B41" s="11">
+        <v>10632.760079145401</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2.65E-3</v>
+        <v>153</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2.8E-3</v>
       </c>
       <c r="F41" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>10</v>
-      </c>
-      <c r="J41" s="1">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="1">
-        <v>0.167616412043571</v>
+      <c r="L41" s="11">
+        <v>0.12889409065246499</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>10</v>
       </c>
-      <c r="B42" s="1">
-        <v>10191.146169662399</v>
+      <c r="B42" s="11">
+        <v>5975.3890731334604</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>159</v>
+      </c>
+      <c r="E42" s="11">
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="F42" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G42" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1">
-        <v>60</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="J42" s="1">
+        <v>15</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="1">
-        <v>0.16739201545715299</v>
+      <c r="L42" s="11">
+        <v>0.12854890525341001</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" s="1">
-        <v>29220.5917041301</v>
+      <c r="B43" s="11">
+        <v>6815.8515772819501</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="1">
-        <v>7.7499999999999999E-3</v>
+        <v>166</v>
+      </c>
+      <c r="E43" s="11">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F43" s="1">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G43" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>22</v>
@@ -7081,37 +7201,37 @@
       <c r="K43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="1">
-        <v>0.166702896356582</v>
+      <c r="L43" s="11">
+        <v>0.12859256565570801</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>16</v>
       </c>
-      <c r="B44" s="1">
-        <v>6287.7366003990101</v>
+      <c r="B44" s="11">
+        <v>26692.431898117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="1">
-        <v>5.3499999999999997E-3</v>
+        <v>172</v>
+      </c>
+      <c r="E44" s="11">
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F44" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G44" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>22</v>
@@ -7119,8 +7239,8 @@
       <c r="K44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="1">
-        <v>0.16621382534503901</v>
+      <c r="L44" s="11">
+        <v>0.12880104780197099</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -7128,28 +7248,28 @@
         <v>19</v>
       </c>
       <c r="B45" s="1">
-        <v>8473.3955910205805</v>
+        <v>60758.278160333597</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="E45" s="1">
-        <v>6.4999999999999997E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F45" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>22</v>
@@ -7158,96 +7278,97 @@
         <v>22</v>
       </c>
       <c r="L45" s="1">
-        <v>0.16649667918682001</v>
+        <v>0.12836225330829601</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>22</v>
       </c>
-      <c r="B46" s="1">
-        <v>18900.962663412</v>
+      <c r="B46" s="11">
+        <v>12393.227298259701</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1.15E-3</v>
+        <v>178</v>
+      </c>
+      <c r="E46" s="11">
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="F46" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G46" s="1">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0.12859857082366899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>25</v>
+      </c>
+      <c r="B47" s="12">
+        <v>17714.9613432884</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="12">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>25</v>
+      </c>
+      <c r="G47" s="5">
         <v>50</v>
       </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>40</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.167051956057548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>25</v>
-      </c>
-      <c r="B47" s="1">
-        <v>18793.874727010701</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45</v>
-      </c>
-      <c r="G47" s="1">
-        <v>20</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>55</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.16712035238742801</v>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0.128302082419395</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AA7442-A1A6-4F71-B9E7-B52F5DCB0D7C}">
-  <dimension ref="A2:B38"/>
+  <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7255,7 +7376,7 @@
     <col min="1" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7263,298 +7384,277 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B2" xr:uid="{65AA7442-A1A6-4F71-B9E7-B52F5DCB0D7C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B38">
-      <sortCondition descending="1" ref="B2"/>
+  <autoFilter ref="A2:B35" xr:uid="{65AA7442-A1A6-4F71-B9E7-B52F5DCB0D7C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B35">
+      <sortCondition descending="1" ref="B2:B35"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hyperparameter search/O3/hyperparameter_optimization_results.xlsx
+++ b/hyperparameter search/O3/hyperparameter_optimization_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikodemas\Desktop\o3 results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikodemas\Desktop\Breathe in Breathe out\Breathe-in-Breathe-out\hyperparameter search\O3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB28908-837D-41AC-ABA6-EE7CE3FB1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E38057-4093-494B-83BE-30A116CFBAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{AD279D57-B0C1-4544-A24A-7AD6676E0DF7}"/>
+    <workbookView xWindow="3000" yWindow="620" windowWidth="16200" windowHeight="9580" firstSheet="1" activeTab="3" xr2:uid="{AD279D57-B0C1-4544-A24A-7AD6676E0DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="lstm" sheetId="2" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="190">
   <si>
     <t>SEQUENCE LENGTH</t>
   </si>
@@ -611,9 +611,6 @@
   </si>
   <si>
     <t>31/08/2021 09:40:54</t>
-  </si>
-  <si>
-    <t>Err</t>
   </si>
   <si>
     <t>Imperial's HPC crashed after this, so I am taking this as last end time</t>
@@ -2585,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8FCE6B-FAB7-48FA-85B5-87963164A5DD}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -5800,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB916D38-7C19-4312-9BE7-C1891C8A1A94}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6181,19 +6178,33 @@
       <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="E10" s="1">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.230961129069328</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -6549,19 +6560,33 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="E22" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.53560131788253695</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -6841,19 +6866,31 @@
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="F32" s="1">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>40</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>25</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.27331018447875899</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -7408,7 +7445,7 @@
         <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
